--- a/Sprint-9/Product Backlog-Burndown.xlsx
+++ b/Sprint-9/Product Backlog-Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao12\Sprint-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\PROJETO9\adocao\Sprint-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Uma tela de apresentação será mostrada com todos os dados do administrador</t>
   </si>
   <si>
-    <t>Médio</t>
-  </si>
-  <si>
     <t>Se precisa de alguma forma de armazenamento persistente de dados</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>Atualizar relacionamentos das classes</t>
   </si>
   <si>
-    <t>É necessário implementar uma opção para visualização do relatório, ou seja tudo que foi realizado dentro do sistema e quem realizou.</t>
-  </si>
-  <si>
     <t>O administrador irá possuir a opção de recuperação de senha e poderá editar e visualizar seus dados dentro do sistema</t>
   </si>
   <si>
@@ -555,6 +549,30 @@
   </si>
   <si>
     <t>Os testes estão divididos em testes escritos no código e não escritos no código. Os não escritos terão um relatório na pasta de artefatos</t>
+  </si>
+  <si>
+    <t>Desejo que o Sistema forneça uma opção para que os Administradores Avaliem os Pedidos de Adoção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deverá informar um relatório com as avaliações dos administradores </t>
+  </si>
+  <si>
+    <t>Criar Tela StatusAdocao</t>
+  </si>
+  <si>
+    <t>Criar Tela RelatórioAdocoes</t>
+  </si>
+  <si>
+    <t>Implementar TabbedPane na Tela de RelatorioAdocao</t>
+  </si>
+  <si>
+    <t>Tratar os Panels de Acordo com o Status das Adoções</t>
+  </si>
+  <si>
+    <t>Modificar Model Adocao</t>
+  </si>
+  <si>
+    <t>Busca e Visualização das Adoções em Tabbles</t>
   </si>
 </sst>
 </file>
@@ -564,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -664,14 +682,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +742,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
@@ -853,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,28 +945,13 @@
     <xf numFmtId="4" fontId="13" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,20 +960,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -987,7 +990,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,11 +1011,11 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1970,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1988,14 +1991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2100,10 +2103,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -2133,8 +2136,8 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
@@ -2162,8 +2165,8 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
@@ -2191,10 +2194,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2224,8 +2227,8 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -2253,8 +2256,8 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2282,8 +2285,8 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
@@ -2311,8 +2314,8 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
@@ -2340,8 +2343,8 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
@@ -2369,8 +2372,8 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2401,8 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
@@ -2427,10 +2430,10 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2460,8 +2463,8 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
@@ -2489,8 +2492,8 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
@@ -2518,8 +2521,8 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
@@ -2547,8 +2550,8 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
@@ -2576,8 +2579,8 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
@@ -2605,8 +2608,8 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
@@ -2634,8 +2637,8 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
@@ -2663,8 +2666,8 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
@@ -2692,10 +2695,10 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -2725,8 +2728,8 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
@@ -2754,8 +2757,8 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
@@ -2783,10 +2786,10 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -2816,8 +2819,8 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
@@ -2845,8 +2848,8 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2874,8 +2877,8 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
@@ -2903,8 +2906,8 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="24" t="s">
         <v>72</v>
       </c>
@@ -2932,14 +2935,14 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="C33" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="5">
         <v>0.5</v>
@@ -2965,10 +2968,10 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
@@ -2994,10 +2997,10 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
@@ -3023,14 +3026,14 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -3043,10 +3046,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -3059,10 +3062,10 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -3075,10 +3078,10 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5">
         <v>1.5</v>
@@ -3091,14 +3094,14 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>87</v>
+      <c r="B40" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
@@ -3111,10 +3114,10 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5">
         <v>0.5</v>
@@ -3127,10 +3130,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
@@ -3143,14 +3146,14 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="C43" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -3163,10 +3166,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -3179,10 +3182,10 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -3195,14 +3198,14 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="C46" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D46" s="5">
         <v>0.5</v>
@@ -3215,10 +3218,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
@@ -3231,10 +3234,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
@@ -3247,14 +3250,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -3267,10 +3270,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -3283,10 +3286,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="5">
         <v>1.5</v>
@@ -3299,14 +3302,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="C52" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -3319,10 +3322,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="5">
         <v>3</v>
@@ -3335,10 +3338,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
@@ -3351,14 +3354,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -3371,10 +3374,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
@@ -3387,10 +3390,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -3403,10 +3406,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
@@ -3419,14 +3422,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>88</v>
+      <c r="B59" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="5">
         <v>0.5</v>
@@ -3439,10 +3442,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -3455,10 +3458,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="5">
         <v>1.5</v>
@@ -3471,10 +3474,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="5">
         <v>4</v>
@@ -3487,10 +3490,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
@@ -3503,10 +3506,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="5">
         <v>0.8</v>
@@ -3519,14 +3522,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -3539,10 +3542,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" s="5">
         <v>4</v>
@@ -3555,10 +3558,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
@@ -3571,10 +3574,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
@@ -3587,14 +3590,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="35" t="s">
-        <v>144</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
@@ -3607,10 +3610,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
@@ -3623,10 +3626,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
@@ -3639,14 +3642,14 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="C72" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D72" s="5">
         <v>1.5</v>
@@ -3659,10 +3662,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
@@ -3675,10 +3678,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="5">
         <v>2</v>
@@ -3691,10 +3694,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="5">
         <v>1.5</v>
@@ -3707,10 +3710,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="5">
         <v>0.5</v>
@@ -3723,10 +3726,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="5">
         <v>2.5</v>
@@ -3739,14 +3742,14 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>163</v>
+      <c r="A78" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D78" s="5">
         <v>0.5</v>
@@ -3759,10 +3762,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="34"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
@@ -3775,10 +3778,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D80" s="5">
         <v>0.5</v>
@@ -3791,10 +3794,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D81" s="5">
         <v>0.5</v>
@@ -3807,14 +3810,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>164</v>
+      <c r="A82" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D82" s="5">
         <v>2</v>
@@ -3827,10 +3830,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D83" s="5">
         <v>2</v>
@@ -3843,10 +3846,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D84" s="5">
         <v>1</v>
@@ -3859,10 +3862,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D85" s="5">
         <v>2</v>
@@ -3874,169 +3877,229 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
+    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3</v>
+      </c>
+      <c r="E86" s="50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F86" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="31"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E87" s="50">
+        <v>1.85</v>
+      </c>
+      <c r="F87" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="31"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>177</v>
-      </c>
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="F89" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D90" s="5">
-        <v>3</v>
-      </c>
-      <c r="E90" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E90" s="50">
+        <v>1.42</v>
+      </c>
       <c r="F90" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D91" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="50">
+        <v>3.75</v>
+      </c>
       <c r="F91" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>177</v>
+      </c>
       <c r="C92" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
-      </c>
-      <c r="E92" s="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1.34</v>
+      </c>
       <c r="F92" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D93" s="5">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1.73</v>
+      </c>
       <c r="F93" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D94" s="5">
-        <v>2</v>
-      </c>
-      <c r="E94" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.19</v>
+      </c>
       <c r="F94" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="5">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="F96" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
-    </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="25"/>
+      <c r="F97" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F99" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>117</v>
-      </c>
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="6" t="s">
         <v>118</v>
       </c>
@@ -4044,15 +4107,15 @@
         <v>2</v>
       </c>
       <c r="E100" s="5">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="F100" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="6" t="s">
         <v>119</v>
       </c>
@@ -4060,15 +4123,15 @@
         <v>2</v>
       </c>
       <c r="E101" s="5">
-        <v>1.25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F101" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="6" t="s">
         <v>120</v>
       </c>
@@ -4076,35 +4139,27 @@
         <v>2</v>
       </c>
       <c r="E102" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F102" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="5">
-        <v>2</v>
-      </c>
-      <c r="E103" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F103" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4143,8 +4198,8 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4158,23 +4213,23 @@
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="25" t="s">
+    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="25"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
@@ -4209,9 +4264,9 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
@@ -4219,32 +4274,30 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="A119" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
     <mergeCell ref="B72:B77"/>
     <mergeCell ref="A72:A77"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:B15"/>
@@ -4256,20 +4309,6 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="A65:A68"/>
@@ -4278,12 +4317,20 @@
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B59:B64"/>
     <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="A82:A85"/>
     <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="A86:A91"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4319,20 +4366,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="1"/>
@@ -4347,40 +4394,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="42" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1"/>
@@ -4395,18 +4442,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4548,11 +4595,11 @@
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>328.76670000000007</v>
+        <v>312.97670000000005</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>328.76670000000007</v>
+        <v>312.97670000000005</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -4594,22 +4641,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4628,10 +4675,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
+      <c r="A9" s="44">
         <v>50</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>35</v>
@@ -4666,7 +4713,7 @@
       </c>
       <c r="K9" s="15">
         <f>SUMIF('Product Backlog'!F:F,9,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="L9" s="15">
         <f>SUMIF('Product Backlog'!F:F,10,'Product Backlog'!E:E)</f>
@@ -4674,11 +4721,11 @@
       </c>
       <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>171.23329999999999</v>
+        <v>187.02329999999998</v>
       </c>
       <c r="N9" s="15">
         <f>M9/10</f>
-        <v>17.123329999999999</v>
+        <v>18.702329999999996</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -4693,10 +4740,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -4710,6 +4753,10 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/Sprint-9/Product Backlog-Burndown.xlsx
+++ b/Sprint-9/Product Backlog-Burndown.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\PROJETO9\adocao\Sprint-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sistemas de Informação\Faculdade\PROJETO9\adocao\Sprint-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Busca e Visualização das Adoções em Tabbles</t>
+  </si>
+  <si>
+    <t>Criar classe relatorio em model</t>
   </si>
 </sst>
 </file>
@@ -945,13 +948,13 @@
     <xf numFmtId="4" fontId="13" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,17 +966,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,14 +990,11 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,10 +1008,16 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1973,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1991,14 +1994,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2103,10 +2106,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -2136,8 +2139,8 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2168,8 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
@@ -2430,7 +2433,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -2463,7 +2466,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="31"/>
       <c r="C17" s="3" t="s">
         <v>59</v>
@@ -2492,7 +2495,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
         <v>60</v>
@@ -2521,7 +2524,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>61</v>
@@ -2550,7 +2553,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="31"/>
       <c r="C20" s="6" t="s">
         <v>62</v>
@@ -2579,7 +2582,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="31"/>
       <c r="C21" s="6" t="s">
         <v>63</v>
@@ -2608,7 +2611,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="31"/>
       <c r="C22" s="6" t="s">
         <v>64</v>
@@ -2637,7 +2640,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="31"/>
       <c r="C23" s="6" t="s">
         <v>65</v>
@@ -2666,7 +2669,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="32"/>
       <c r="C24" s="4" t="s">
         <v>66</v>
@@ -3742,7 +3745,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B78" s="30" t="s">
@@ -3762,7 +3765,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="31"/>
       <c r="C79" s="6" t="s">
         <v>158</v>
@@ -3778,7 +3781,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="31"/>
       <c r="C80" s="6" t="s">
         <v>167</v>
@@ -3794,7 +3797,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="31"/>
       <c r="C81" s="6" t="s">
         <v>160</v>
@@ -3810,7 +3813,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B82" s="30" t="s">
@@ -3830,7 +3833,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="31"/>
       <c r="C83" s="6" t="s">
         <v>164</v>
@@ -3846,7 +3849,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="31"/>
       <c r="C84" s="6" t="s">
         <v>165</v>
@@ -3862,7 +3865,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="32"/>
       <c r="C85" s="6" t="s">
         <v>166</v>
@@ -3890,7 +3893,7 @@
       <c r="D86" s="5">
         <v>3</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E86" s="27">
         <v>2.2999999999999998</v>
       </c>
       <c r="F86" s="6">
@@ -3906,7 +3909,7 @@
       <c r="D87" s="5">
         <v>1.5</v>
       </c>
-      <c r="E87" s="50">
+      <c r="E87" s="27">
         <v>1.85</v>
       </c>
       <c r="F87" s="6">
@@ -3922,7 +3925,7 @@
       <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="50">
+      <c r="E88" s="27">
         <v>0.5</v>
       </c>
       <c r="F88" s="6">
@@ -3938,7 +3941,7 @@
       <c r="D89" s="5">
         <v>1</v>
       </c>
-      <c r="E89" s="50">
+      <c r="E89" s="27">
         <v>0.25</v>
       </c>
       <c r="F89" s="6">
@@ -3954,7 +3957,7 @@
       <c r="D90" s="5">
         <v>2</v>
       </c>
-      <c r="E90" s="50">
+      <c r="E90" s="27">
         <v>1.42</v>
       </c>
       <c r="F90" s="6">
@@ -3970,7 +3973,7 @@
       <c r="D91" s="5">
         <v>5</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E91" s="27">
         <v>3.75</v>
       </c>
       <c r="F91" s="6">
@@ -4033,149 +4036,155 @@
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.46</v>
+      </c>
       <c r="F95" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="5">
-        <v>2</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1.46</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="6" t="s">
-        <v>183</v>
-      </c>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="25"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>116</v>
-      </c>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D99" s="5">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="F99" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="5">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F100" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D101" s="5">
         <v>2</v>
       </c>
       <c r="E101" s="5">
-        <v>2.2000000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="F101" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="C102" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D102" s="5">
         <v>2</v>
       </c>
       <c r="E102" s="5">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="F102" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="6"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F104" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+    <row r="106" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4198,30 +4207,28 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="6"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="25"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
@@ -4231,17 +4238,19 @@
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="25"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="25"/>
       <c r="C114" s="6"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4264,28 +4273,77 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
       <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="B72:B77"/>
@@ -4298,39 +4356,10 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="A86:A91"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4366,20 +4395,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="1"/>
@@ -4394,40 +4423,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1"/>
@@ -4442,18 +4471,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4641,22 +4670,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4675,10 +4704,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="50">
         <v>50</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>35</v>
@@ -4740,6 +4769,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -4754,9 +4786,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
